--- a/W4/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
+++ b/W4/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -2619,7 +2619,7 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
@@ -2955,7 +2955,7 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>

--- a/W4/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
+++ b/W4/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="165">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -486,9 +486,6 @@
   </si>
   <si>
     <t>Recruiment</t>
-  </si>
-  <si>
-    <t>Check out</t>
   </si>
   <si>
     <t>Add to cart</t>
@@ -2957,7 +2954,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3262,17 +3259,17 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f>IF(D18="Complex", 240, IF(D18="Medium",120,60))</f>
+        <v>60</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>132</v>
@@ -3307,7 +3304,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3381,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>25</v>
@@ -3407,7 +3404,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
@@ -3433,20 +3430,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>38</v>
@@ -3458,21 +3455,21 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>151</v>
+      <c r="B12" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>38</v>
@@ -3485,17 +3482,17 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F13" s="41" t="s">
         <v>131</v>
@@ -3510,11 +3507,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>29</v>
+      <c r="B14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1</v>
@@ -3561,7 +3558,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>29</v>
@@ -3586,7 +3583,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>29</v>
@@ -3612,7 +3609,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>29</v>
@@ -3731,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>10</v>
@@ -3757,7 +3754,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>10</v>
@@ -3809,7 +3806,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>19</v>
@@ -3835,7 +3832,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>19</v>
@@ -3861,10 +3858,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>2</v>
@@ -3886,10 +3883,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>2</v>
@@ -3913,7 +3910,7 @@
         <v>133</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>2</v>
@@ -3934,10 +3931,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>2</v>
@@ -3958,10 +3955,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>2</v>

--- a/W4/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
+++ b/W4/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="168">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -467,21 +467,12 @@
     <t>Change password</t>
   </si>
   <si>
-    <t>Display list porduct</t>
-  </si>
-  <si>
     <t>Blog list</t>
   </si>
   <si>
     <t>Post list</t>
   </si>
   <si>
-    <t>Sliders list</t>
-  </si>
-  <si>
-    <t>Sliders detail</t>
-  </si>
-  <si>
     <t>Introduction</t>
   </si>
   <si>
@@ -500,21 +491,9 @@
     <t>View list order</t>
   </si>
   <si>
-    <t>Order detail</t>
-  </si>
-  <si>
-    <t>List account</t>
-  </si>
-  <si>
     <t>Search account</t>
   </si>
   <si>
-    <t>Setting List</t>
-  </si>
-  <si>
-    <t>Setting Details</t>
-  </si>
-  <si>
     <t>Notification</t>
   </si>
   <si>
@@ -524,22 +503,52 @@
     <t>Manager order</t>
   </si>
   <si>
-    <t>Manager product</t>
-  </si>
-  <si>
-    <t>Add, edit, delete product</t>
-  </si>
-  <si>
     <t>Feedback list</t>
   </si>
   <si>
     <t>Reply feedback</t>
   </si>
   <si>
-    <t>Add, edit, delete categories</t>
-  </si>
-  <si>
-    <t>Sale</t>
+    <t>Filter products</t>
+  </si>
+  <si>
+    <t>List Account</t>
+  </si>
+  <si>
+    <t>Search Product</t>
+  </si>
+  <si>
+    <t>Search Blog</t>
+  </si>
+  <si>
+    <t>View Order detail</t>
+  </si>
+  <si>
+    <t>Delete Product</t>
+  </si>
+  <si>
+    <t>Update status order</t>
+  </si>
+  <si>
+    <t>Add edit delete blog</t>
+  </si>
+  <si>
+    <t>Add edit delete post</t>
+  </si>
+  <si>
+    <t>Contact us</t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>Add edit delete voucher</t>
+  </si>
+  <si>
+    <t>Cancel Order</t>
+  </si>
+  <si>
+    <t>Display list porduct, category</t>
   </si>
 </sst>
 </file>
@@ -722,7 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -827,6 +836,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1657,9 +1684,9 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2618,7 +2645,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2809,29 +2836,29 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+    <row r="14" spans="1:8" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="43">
         <v>6</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="38" t="s">
+      <c r="B14" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="46">
         <v>240</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
@@ -2916,7 +2943,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="7">
         <v>240</v>
@@ -2952,9 +2979,9 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3028,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>19</v>
@@ -3037,14 +3064,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" ref="E9:E18" si="1">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
+        <f t="shared" ref="E9:E17" si="1">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="F9" s="35" t="s">
         <v>126</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H9" s="15"/>
     </row>
@@ -3054,10 +3081,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>1</v>
@@ -3066,11 +3093,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>127</v>
+      <c r="F10" s="35" t="s">
+        <v>126</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H10" s="15"/>
     </row>
@@ -3080,7 +3107,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>19</v>
@@ -3092,8 +3119,8 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>128</v>
+      <c r="F11" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>137</v>
@@ -3105,8 +3132,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
+      <c r="B12" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>19</v>
@@ -3118,8 +3145,8 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>132</v>
+      <c r="F12" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>137</v>
@@ -3131,8 +3158,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>143</v>
+      <c r="B13" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>19</v>
@@ -3157,8 +3184,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>144</v>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>19</v>
@@ -3183,23 +3210,23 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H15" s="15"/>
     </row>
@@ -3208,23 +3235,23 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>127</v>
+        <v>60</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>132</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H16" s="15"/>
     </row>
@@ -3233,10 +3260,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>1</v>
@@ -3245,11 +3272,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F17" s="35" t="s">
-        <v>126</v>
+      <c r="F17" s="34" t="s">
+        <v>128</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H17" s="15"/>
     </row>
@@ -3259,10 +3286,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>1</v>
@@ -3272,7 +3299,7 @@
         <v>60</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>137</v>
@@ -3304,7 +3331,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3378,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>25</v>
@@ -3396,7 +3423,7 @@
       <c r="G9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
@@ -3407,7 +3434,7 @@
         <v>148</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>1</v>
@@ -3416,13 +3443,13 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F10" s="40" t="s">
-        <v>127</v>
+      <c r="F10" s="35" t="s">
+        <v>126</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
@@ -3430,33 +3457,33 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>132</v>
+        <v>60</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>149</v>
+      <c r="B12" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>25</v>
@@ -3468,21 +3495,21 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F12" s="41" t="s">
-        <v>128</v>
+      <c r="F12" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>150</v>
+      <c r="B13" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>25</v>
@@ -3500,15 +3527,15 @@
       <c r="G13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>151</v>
+      <c r="B14" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>25</v>
@@ -3520,23 +3547,23 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F14" s="35" t="s">
-        <v>126</v>
+      <c r="F14" s="41" t="s">
+        <v>131</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>29</v>
+        <v>145</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>1</v>
@@ -3545,23 +3572,23 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F15" s="40" t="s">
-        <v>127</v>
+      <c r="F15" s="41" t="s">
+        <v>132</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>2</v>
@@ -3570,23 +3597,23 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F16" s="42" t="s">
-        <v>128</v>
+      <c r="F16" s="41" t="s">
+        <v>132</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>9</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>154</v>
+      <c r="B17" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>2</v>
@@ -3596,12 +3623,12 @@
         <v>120</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
@@ -3609,7 +3636,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>29</v>
@@ -3621,13 +3648,13 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F18" s="41" t="s">
-        <v>131</v>
+      <c r="F18" s="42" t="s">
+        <v>128</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:F18"/>
@@ -3650,11 +3677,11 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3728,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>10</v>
@@ -3737,7 +3764,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" ref="E9:E14" si="1">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
+        <f t="shared" ref="E9:E15" si="1">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="F9" s="41" t="s">
@@ -3746,7 +3773,7 @@
       <c r="G9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
@@ -3754,25 +3781,25 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>127</v>
+        <v>60</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>126</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
@@ -3783,7 +3810,7 @@
         <v>122</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>3</v>
@@ -3792,13 +3819,13 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="F11" s="42" t="s">
-        <v>128</v>
+      <c r="F11" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
@@ -3806,25 +3833,25 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>132</v>
+        <v>60</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
@@ -3832,10 +3859,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>1</v>
@@ -3850,7 +3877,7 @@
       <c r="G13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
@@ -3858,7 +3885,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>164</v>
@@ -3870,37 +3897,38 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>126</v>
+      <c r="F14" s="41" t="s">
+        <v>131</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>164</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="7">
-        <v>120</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
@@ -3918,20 +3946,20 @@
       <c r="E16" s="7">
         <v>120</v>
       </c>
-      <c r="F16" s="40" t="s">
-        <v>127</v>
+      <c r="F16" s="41" t="s">
+        <v>132</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>164</v>
@@ -3942,29 +3970,30 @@
       <c r="E17" s="7">
         <v>120</v>
       </c>
-      <c r="F17" s="41" t="s">
-        <v>132</v>
+      <c r="F17" s="42" t="s">
+        <v>128</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>164</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="7">
-        <v>120</v>
+        <f t="shared" ref="E18:E21" si="2">IF(D18="Complex", 240, IF(D18="Medium",120,60))</f>
+        <v>60</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>128</v>
@@ -3972,15 +4001,140 @@
       <c r="G18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>11</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>12</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>13</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>14</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" ref="E22:E23" si="3">IF(D22="Complex", 240, IF(D22="Medium",120,60))</f>
+        <v>60</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>15</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:F18"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D23">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
